--- a/TNR_PREJDD/RO/PREJDD.RO.ACT.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.ACT.xlsx
@@ -9,11 +9,13 @@
     <sheet state="visible" name="003MET" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="004EMP" sheetId="5" r:id="rId8"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'001'!$A$1:$BA$35</definedName>
+  </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mjJOt1k9g3Aj/FJd0la+eg5rtehEw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhI97F/rN8aXlJXKQnjQ8gS8vOOSQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -61303,6 +61305,7 @@
       <c r="BA1000" s="26"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$BA$35"/>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/TNR_PREJDD/RO/PREJDD.RO.ACT.xlsx
+++ b/TNR_PREJDD/RO/PREJDD.RO.ACT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="540" windowWidth="18108" windowHeight="12900" activeTab="1"/>
+    <workbookView xWindow="228" yWindow="540" windowWidth="18108" windowHeight="12900" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1921" uniqueCount="374">
   <si>
     <t>Date</t>
   </si>
@@ -1094,18 +1094,6 @@
     <t>DT_DATFIN</t>
   </si>
   <si>
-    <t>RO.ACT.003HAB.SRM.01.1</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRM.01.2</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRS.01.1</t>
-  </si>
-  <si>
-    <t>RO.ACT.003HAB.SRS.01.2</t>
-  </si>
-  <si>
     <t>2023-01-01 00:00:00.000</t>
   </si>
   <si>
@@ -1121,22 +1109,10 @@
     <t>ST_NIV</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRM.01.1</t>
-  </si>
-  <si>
     <t>N3</t>
   </si>
   <si>
-    <t>RO.ACT.003MET.SRM.01.2</t>
-  </si>
-  <si>
     <t>N4</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRS.01.1</t>
-  </si>
-  <si>
-    <t>RO.ACT.003MET.SRS.01.2</t>
   </si>
   <si>
     <t>N5</t>
@@ -1167,6 +1143,36 @@
   </si>
   <si>
     <t>Champ</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRM.01.1</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRM.01.2</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRS.01.1</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRS.01.2</t>
+  </si>
+  <si>
+    <t>HAB.RO.ACT.003HAB.SRL.01</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRM.01.1</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRM.01.2</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRS.01.1</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRS.01.2</t>
+  </si>
+  <si>
+    <t>MET.RO.ACT.003MET.SRL.01</t>
   </si>
 </sst>
 </file>
@@ -2751,7 +2757,7 @@
   </sheetPr>
   <dimension ref="A1:BA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -61495,7 +61501,9 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -61531,7 +61539,7 @@
         <v>135</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="D2" s="20" t="s">
         <v>68</v>
@@ -61548,7 +61556,7 @@
         <v>135</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>68</v>
@@ -61565,7 +61573,7 @@
         <v>148</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>68</v>
@@ -61582,7 +61590,7 @@
         <v>148</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>68</v>
@@ -61599,13 +61607,13 @@
         <v>253</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>253</v>
+        <v>368</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -61620,7 +61628,9 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -61632,16 +61642,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="33" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>345</v>
@@ -61658,10 +61668,10 @@
         <v>174</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>68</v>
@@ -61678,10 +61688,10 @@
         <v>174</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>68</v>
@@ -61698,7 +61708,7 @@
         <v>187</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D4" s="20" t="s">
         <v>107</v>
@@ -61718,7 +61728,7 @@
         <v>187</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>107</v>
@@ -61738,16 +61748,16 @@
         <v>266</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>266</v>
+        <v>373</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -61762,33 +61772,33 @@
   </sheetPr>
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="33" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>12</v>
@@ -61803,7 +61813,7 @@
         <v>346</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K1" s="16" t="s">
         <v>60</v>
@@ -61832,7 +61842,7 @@
         <v>1003</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>213</v>
@@ -61876,7 +61886,7 @@
         <v>1004</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>213</v>
@@ -61920,7 +61930,7 @@
         <v>1005</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>226</v>
@@ -61964,7 +61974,7 @@
         <v>1006</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>226</v>
@@ -62008,7 +62018,7 @@
         <v>1007</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>279</v>
@@ -62017,10 +62027,10 @@
         <v>77</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="J6" s="23" t="s">
         <v>75</v>
@@ -62060,10 +62070,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="33" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2">
